--- a/src/Input_Files/cultures/italia_cultures.xlsx
+++ b/src/Input_Files/cultures/italia_cultures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8143840-71D1-4D7C-9B75-7695437282C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1D73B-EDEF-41CB-BC44-743234C67A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,137 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{2C1D1F83-05B6-4600-9A10-243F31555762}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -648,16 +778,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -689,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -705,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -713,7 +843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -721,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -729,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -737,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -745,7 +875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -753,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -761,7 +891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -769,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -777,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -785,7 +915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -793,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -801,7 +931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -809,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -817,7 +947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -825,7 +955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -833,7 +963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -843,28 +973,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B21">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/Input_Files/cultures/italia_cultures.xlsx
+++ b/src/Input_Files/cultures/italia_cultures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1D73B-EDEF-41CB-BC44-743234C67A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B680C8-A333-4EFE-8BBF-C76F2F1D569D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>RGB</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>(0, 152, 212)</t>
+  </si>
+  <si>
+    <t>(102, 51, 51)</t>
+  </si>
+  <si>
+    <t>croatian</t>
   </si>
 </sst>
 </file>
@@ -214,77 +220,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{2C1D1F83-05B6-4600-9A10-243F31555762}"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -775,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,32 +907,51 @@
         <v>44</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B21">
-    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A23 A25:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
